--- a/data/trans_dic/P25A_N_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25A_N_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene más de dos enfermedades crónicas discapacitantes</t>
+          <t>Población que tiene más de dos enfermedades crónicas discapacitantes (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,17 +705,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -676,42 +725,72 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>6,57%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7,09%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
           <t>19,49%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>5,31%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>4,47%</t>
-        </is>
-      </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>14,3%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>13,93%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5,13%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>5,27%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>6,11%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>11,13%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>10,59%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>9,3%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,5</t>
+          <t>0,69; 6,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 6,35</t>
+          <t>1,14; 11,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,99; 8,31</t>
+          <t>1,65; 11,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 9,22</t>
+          <t>1,0; 8,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,97; 13,71</t>
+          <t>2,96; 13,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,5; 10,66</t>
+          <t>1,24; 10,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,71; 10,79</t>
+          <t>4,28; 12,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,92; 28,37</t>
+          <t>3,42; 11,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,3; 8,86</t>
+          <t>4,01; 12,08</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,6; 7,0</t>
+          <t>12,72; 28,89</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,13; 8,22</t>
+          <t>8,77; 21,12</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,18; 15,46</t>
+          <t>8,5; 21,58</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>3,11; 8,07</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>3,12; 9,36</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>3,82; 10,35</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>7,56; 15,85</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>7,41; 15,66</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>6,12; 14,62</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>7,31%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>12,71%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>21,54%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>18,11%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>5,74%</t>
         </is>
       </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>5,71%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>6,06%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>5,63%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>6,15%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>10,91%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>16,52%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>13,61%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,61; 8,25</t>
+          <t>1,75; 8,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,65; 8,4</t>
+          <t>1,62; 7,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,64; 8,82</t>
+          <t>2,67; 8,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,02; 16,79</t>
+          <t>4,81; 16,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,53; 11,73</t>
+          <t>6,9; 18,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,53; 11,57</t>
+          <t>5,53; 15,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,42; 11,23</t>
+          <t>4,25; 12,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,65; 17,79</t>
+          <t>4,65; 11,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,75; 8,55</t>
+          <t>4,7; 11,49</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,79; 8,31</t>
+          <t>8,34; 18,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,0; 8,35</t>
+          <t>15,48; 28,01</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,67; 15,09</t>
+          <t>12,89; 24,99</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>3,72; 8,74</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3,54; 8,54</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>4,21; 8,51</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>7,52; 14,81</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>12,4; 21,37</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>9,94; 17,96</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>10,88%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>12,11%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>13,98%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>7,86%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>9,39%</t>
-        </is>
-      </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>25,66%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>18,61%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>7,52%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>9,36%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>7,76%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>11,13%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>18,74%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>11,97%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 7,48</t>
+          <t>2,55; 8,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,17; 11,35</t>
+          <t>5,02; 11,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,73; 5,85</t>
+          <t>1,53; 5,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,51; 12,91</t>
+          <t>5,37; 13,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,87; 17,59</t>
+          <t>8,24; 18,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,14; 14,3</t>
+          <t>2,76; 8,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,02; 15,38</t>
+          <t>7,13; 14,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,08; 18,87</t>
+          <t>8,02; 14,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,77; 11,44</t>
+          <t>9,11; 15,64</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,41; 11,73</t>
+          <t>9,96; 18,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,86; 9,8</t>
+          <t>20,05; 31,74</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,57; 14,25</t>
+          <t>14,44; 23,26</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>5,56; 9,85</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>7,31; 11,66</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>5,98; 10,0</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>8,43; 14,24</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>14,92; 22,87</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>9,5; 15,15</t>
         </is>
       </c>
     </row>
@@ -1076,17 +1305,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,56%</t>
+          <t>10,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -1096,42 +1325,72 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>13,6%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,71%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,13%</t>
+          <t>13,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>13,79%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>17,3%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
           <t>22,44%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>10,81%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>11,11%</t>
-        </is>
-      </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>13,89%</t>
+          <t>26,1%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>23,5%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>11,2%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>11,22%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>14,09%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>17,07%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>19,65%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>17,34%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,12; 13,38</t>
+          <t>5,33; 13,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,52; 12,02</t>
+          <t>5,61; 11,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,36; 13,86</t>
+          <t>7,85; 14,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,41; 17,7</t>
+          <t>8,08; 17,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,6; 17,85</t>
+          <t>9,67; 19,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,36; 17,96</t>
+          <t>7,54; 15,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,83; 21,37</t>
+          <t>10,37; 17,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,67; 28,47</t>
+          <t>10,74; 17,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,45; 13,68</t>
+          <t>13,67; 21,42</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,04; 13,82</t>
+          <t>17,1; 27,95</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,67; 16,84</t>
+          <t>20,86; 32,21</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,87; 20,93</t>
+          <t>18,75; 28,65</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>8,64; 14,26</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>8,94; 13,81</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>11,65; 16,96</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>13,74; 20,93</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>16,32; 23,25</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>14,56; 20,57</t>
         </is>
       </c>
     </row>
@@ -1216,17 +1505,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,51%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1236,42 +1525,72 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>18,63%</t>
+          <t>26,91%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>20,41%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>19,39%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>20,47%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18,88%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
           <t>33,46%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>15,13%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>14,94%</t>
-        </is>
-      </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>28,32%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
+          <t>28,63%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>15,81%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>15,12%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>16,2%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>28,13%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>27,63%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>21,66%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,8; 16,66</t>
+          <t>8,17; 17,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,53; 13,67</t>
+          <t>6,55; 14,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,44; 19,18</t>
+          <t>9,24; 18,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,03; 28,64</t>
+          <t>15,74; 28,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,44; 24,53</t>
+          <t>21,04; 33,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,94; 26,46</t>
+          <t>10,22; 19,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,97; 24,06</t>
+          <t>14,84; 25,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>27,27; 39,7</t>
+          <t>15,98; 26,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,77; 18,62</t>
+          <t>14,26; 23,5</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,55; 18,71</t>
+          <t>27,03; 40,3</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13,09; 19,58</t>
+          <t>22,11; 35,19</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>23,43; 32,5</t>
+          <t>22,2; 36,54</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>12,31; 19,42</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>12,21; 18,57</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>13,19; 19,8</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>23,89; 32,99</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>23,71; 32,5</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>17,66; 25,55</t>
         </is>
       </c>
     </row>
@@ -1356,17 +1705,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>18,03%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,59%</t>
+          <t>16,48%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1376,42 +1725,72 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>30,05%</t>
+          <t>17,3%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>23,7%</t>
+          <t>13,79%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>24,08%</t>
+          <t>30,76%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>24,26%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>25,62%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
           <t>20,76%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>24,85%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>20,63%</t>
-        </is>
-      </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>35,59%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
+          <t>31,11%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>25,48%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>20,9%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>20,68%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>16,74%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>27,93%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>23,57%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,7; 26,59</t>
+          <t>13,3; 27,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,37; 23,21</t>
+          <t>10,84; 23,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,33; 20,53</t>
+          <t>9,3; 21,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,6; 17,91</t>
+          <t>6,67; 18,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,33; 37,38</t>
+          <t>11,66; 25,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,45; 29,66</t>
+          <t>8,54; 21,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,89; 30,51</t>
+          <t>24,24; 37,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,03; 28,29</t>
+          <t>19,31; 30,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,27; 30,06</t>
+          <t>20,3; 33,51</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>16,59; 25,04</t>
+          <t>13,72; 28,42</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15,62; 24,82</t>
+          <t>27,95; 43,74</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>12,5; 21,92</t>
+          <t>23,28; 40,17</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>20,93; 31,16</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>16,91; 25,09</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>16,57; 26,15</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>12,55; 21,56</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>22,9; 34,22</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>18,98; 30,69</t>
         </is>
       </c>
     </row>
@@ -1496,17 +1905,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1516,42 +1925,72 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>14,73%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>15,55%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>14,24%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>15,21%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
           <t>20,48%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>11,81%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>11,17%</t>
-        </is>
-      </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>26,16%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
+          <t>22,79%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>12,0%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>11,36%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>11,88%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
           <t>15,83%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>20,46%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>16,39%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,49; 9,88</t>
+          <t>6,71; 10,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,56; 9,68</t>
+          <t>6,99; 10,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,79; 9,71</t>
+          <t>6,84; 10,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,24; 13,05</t>
+          <t>9,25; 13,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,43; 17,64</t>
+          <t>12,59; 17,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,64; 15,94</t>
+          <t>7,79; 11,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,08; 16,75</t>
+          <t>13,57; 17,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,74; 22,9</t>
+          <t>12,6; 16,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>10,45; 13,27</t>
+          <t>13,39; 17,15</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>10,04; 12,4</t>
+          <t>18,05; 23,29</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>10,51; 12,83</t>
+          <t>23,54; 28,89</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>14,25; 17,51</t>
+          <t>20,28; 25,77</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>10,69; 13,44</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>10,08; 12,61</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>10,74; 13,25</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>14,12; 17,39</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>18,51; 22,32</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>14,83; 18,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene más de dos enfermedades crónicas discapacitantes (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>13725</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>20876</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>26113</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1559</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3240</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>21741</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>36127</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>33846</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>36441</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>7290</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5513</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>66482</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>49852</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>54722</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>62554</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>8849</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>8753</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>88223</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3477; 30997</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5973; 61845</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8426; 59827</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>422; 3638</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1306; 6037</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5822; 50655</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>20083; 59071</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>17628; 57990</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>20592; 62089</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4755; 10803</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3382; 8143</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>40553; 102999</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>30204; 78303</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>32374; 97219</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>39158; 105967</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>6007; 12598</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>6119; 12937</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>58055; 138671</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>24494</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>22258</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>30499</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>4597</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5787</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>56211</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>38244</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>38165</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>37829</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5998</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>9911</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>91485</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>62738</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>60423</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>68328</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>10595</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>15698</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>147695</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>10010; 49945</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>9135; 44775</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>15862; 52720</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2399; 8159</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3381; 9207</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>32060; 89983</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>22080; 63629</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>23612; 59340</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>24331; 59435</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3938; 8675</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>7122; 12886</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>65085; 126242</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>40619; 95439</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>38005; 91685</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>46808; 94630</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>7305; 14373</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>11781; 20304</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>107882; 194896</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>32300</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>52845</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>21689</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5169</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7594</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>33647</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>72845</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>78145</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>86459</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>7535</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>14076</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>133483</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>105145</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>130989</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>108148</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>12704</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>21670</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>167130</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>17491; 56580</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>34167; 77766</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10432; 37942</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3234; 7905</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5007; 10983</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>18723; 56127</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>50788; 101624</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>57641; 105219</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>65039; 111648</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5368; 10205</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>10999; 17409</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>103630; 166874</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>77797; 137761</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>102340; 163201</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>83417; 139350</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>9616; 16254</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>17251; 26440</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>132671; 211563</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>54458</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>55242</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>68876</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>7134</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>7744</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>73420</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>94889</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>92826</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>114151</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>11762</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>13965</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>155426</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>149347</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>148068</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>183028</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>18897</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>21709</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>228846</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>34482; 87928</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>36227; 77044</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>50178; 94008</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>4706; 10405</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5509; 11166</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>49651; 100444</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>71114; 122328</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>72342; 120392</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>90208; 141380</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>8963; 14655</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>11162; 17238</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>123997; 189462</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>115097; 190032</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>117923; 182175</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>151289; 220316</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>15208; 23164</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>18027; 25683</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>192184; 271422</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>60045</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>49270</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>66146</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>9910</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>12141</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>71144</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>98730</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>102968</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>97252</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>16321</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>13265</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>148015</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>158776</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>152238</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>163398</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>26231</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>25407</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>219159</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>40487; 85060</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>33001; 71001</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>45609; 92895</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7002; 12678</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>9494; 15159</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>50588; 98055</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>75540; 130633</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>80400; 131739</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>73443; 121031</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>13184; 19655</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>10355; 16486</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>114744; 188865</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>123603; 195029</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>122961; 186968</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>133005; 199749</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>22281; 30767</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>21802; 29888</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>178711; 258515</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>101010</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>87215</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>75839</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>5277</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>7931</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>78116</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>220774</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>168592</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>177475</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>13226</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>22660</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>228550</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>321783</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>255806</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>253314</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>18503</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>30590</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>306666</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>72492; 150062</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>57348; 123145</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>49512; 112090</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3125; 8506</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>5344; 11680</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>48357; 119638</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>173965; 270541</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>134181; 209996</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>140627; 232103</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>8745; 18109</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>17799; 27850</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>170973; 295079</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>264283; 393550</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>207051; 307134</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>202932; 320338</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>13872; 23839</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>25081; 37472</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>246889; 399265</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>288.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>297.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>350.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>374.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>343.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>432.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>389.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>286032</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>287705</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>289161</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>33647</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>44436</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>334278</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>561609</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>514542</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>549607</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>62132</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>79390</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>823441</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>847641</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>802247</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>838769</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>95779</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>123826</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>1157719</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>231428; 349842</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>240984; 349686</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>235895; 346649</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>27925; 40294</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>37978; 52796</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>268815; 405919</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>490227; 645094</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>455267; 577961</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>483839; 619648</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>54764; 70686</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>71429; 87651</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>732586; 931156</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>754767; 949463</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>712105; 890476</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>758823; 935741</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>85441; 105268</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>112039; 135060</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>1047527; 1279804</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
